--- a/Sample Data/students_list.xlsx
+++ b/Sample Data/students_list.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oudai\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B27DB0-04CE-40D4-9792-69B0A43BCE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE50905A-DC53-4E23-A830-2FF7B4D26D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>fname</t>
   </si>
@@ -31,6 +42,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>speciality</t>
   </si>
   <si>
@@ -46,92 +60,119 @@
     <t>image</t>
   </si>
   <si>
+    <t>Lakehal</t>
+  </si>
+  <si>
+    <t>Mouad</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Master 1</t>
+  </si>
+  <si>
     <t>0672159834</t>
   </si>
   <si>
+    <t>Lekhal.Mouad@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Lakehal%20Mouad</t>
+  </si>
+  <si>
+    <t>Oulhadj</t>
+  </si>
+  <si>
+    <t>Oudai</t>
+  </si>
+  <si>
     <t>0698214375</t>
   </si>
   <si>
-    <t>Master 1</t>
+    <t>Oulhadj.Oudai@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Oulhadj%20Oudai</t>
+  </si>
+  <si>
+    <t>Laouedj</t>
+  </si>
+  <si>
+    <t>Yesin</t>
   </si>
   <si>
     <t>0667432981</t>
   </si>
   <si>
-    <t>Software Engineering</t>
+    <t>Laouedj.Yasin@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Laouedj%20Yasin</t>
+  </si>
+  <si>
+    <t>Meftah</t>
+  </si>
+  <si>
+    <t>Seyf</t>
   </si>
   <si>
     <t>0776529348</t>
   </si>
   <si>
+    <t>Meftah.Seyf@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Meftah%20Seyf</t>
+  </si>
+  <si>
+    <t>Drissi</t>
+  </si>
+  <si>
+    <t>Rayen</t>
+  </si>
+  <si>
     <t>0559327146</t>
   </si>
   <si>
+    <t>Drissi.Rayen@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Drissi%20Rayen</t>
+  </si>
+  <si>
+    <t>Zeddon</t>
+  </si>
+  <si>
+    <t>Charaf</t>
+  </si>
+  <si>
     <t>0698745213</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Oudai</t>
-  </si>
-  <si>
-    <t>Oulhadj</t>
-  </si>
-  <si>
-    <t>Lakehal</t>
-  </si>
-  <si>
-    <t>Mouad</t>
-  </si>
-  <si>
-    <t>Laouedj</t>
-  </si>
-  <si>
-    <t>Yesin</t>
-  </si>
-  <si>
-    <t>Meftah</t>
-  </si>
-  <si>
-    <t>Seyf</t>
-  </si>
-  <si>
-    <t>Drissi</t>
-  </si>
-  <si>
-    <t>Rayen</t>
-  </si>
-  <si>
-    <t>Zeddon</t>
-  </si>
-  <si>
-    <t>Charaf</t>
+    <t>Zeddon.Charaf@univ-tlemcen.dz</t>
+  </si>
+  <si>
+    <t>https://api.dicebear.com/7.x/initials/svg?seed=Zeddon%20Charaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,18 +196,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -189,44 +230,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -254,14 +295,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -289,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -300,180 +375,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -495,6 +526,11 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -503,19 +539,20 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="29.69921875" customWidth="1"/>
-    <col min="9" max="9" width="59.19921875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,89 +563,83 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>37114317</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D7" si="0">C2</f>
         <v>37114317</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,".",B2,"@univ-tlemcen.dz")</f>
-        <v>Lakehal.Mouad@univ-tlemcen.dz</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f>_xlfn.CONCAT("https://api.dicebear.com/7.x/initials/svg?seed=",A2,B2)</f>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=LakehalMouad</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>37894561</v>
+      </c>
+      <c r="D3">
+        <v>37894561</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>39082793</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>39082793</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H7" si="1">_xlfn.CONCAT(A3,".",B3,"@univ-tlemcen.dz")</f>
-        <v>Oudai.Oulhadj@univ-tlemcen.dz</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I7" si="2">_xlfn.CONCAT("https://api.dicebear.com/7.x/initials/svg?seed=",A3,B3)</f>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=OudaiOulhadj</v>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -619,132 +650,127 @@
         <v>37187716</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>37187716</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Laouedj.Yesin@univ-tlemcen.dz</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=LaouedjYesin</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>37169208</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>37169208</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Meftah.Seyf@univ-tlemcen.dz</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=MeftahSeyf</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>37198765</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>37198765</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Drissi.Rayen@univ-tlemcen.dz</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=DrissiRayen</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>37131718</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>37131718</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Zeddon.Charaf@univ-tlemcen.dz</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>https://api.dicebear.com/7.x/initials/svg?seed=ZeddonCharaf</v>
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://api.dicebear.com/7.x/initials/svg?seed=LakehalMouad" xr:uid="{07A30974-0DE3-4A2F-9B88-D367CBF19F3C}"/>
-    <hyperlink ref="I3:I7" r:id="rId2" display="https://api.dicebear.com/7.x/initials/svg?seed=LakehalMouad" xr:uid="{235E2252-AB07-4B75-8C75-3D060E3E7453}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{74079893-A61B-4B52-BC3B-B65074762395}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{1B887DEF-8DD1-4BC4-9BE4-215C748D51A7}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{4F817D89-1A25-49E2-BF15-F53FDA9E405A}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{1DF76FC8-883C-4FA0-BD14-1C3C74A030E8}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{0650E305-BDA6-4A26-B08F-344FFE7F51B8}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{335D1B85-A9F2-47F7-8EF0-8804AEF45610}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{E5E11BB1-6AAC-465B-89DF-F2F2B2B4EA56}"/>
+    <hyperlink ref="I3" r:id="rId8" xr:uid="{1FCCDC69-A7FE-4031-873D-BBAAE6028FB9}"/>
+    <hyperlink ref="I4:I7" r:id="rId9" display="https://api.dicebear.com/7.x/initials/svg?seed=%20" xr:uid="{E222A1F1-B909-413B-8E95-3CA62A566F98}"/>
+    <hyperlink ref="I4" r:id="rId10" xr:uid="{B6F42314-5D33-426B-80E6-F0DE433FBC5E}"/>
+    <hyperlink ref="I5" r:id="rId11" xr:uid="{4F6F7186-BE39-4049-B0AA-72058CCB6A15}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{E459A819-86BF-42D4-AAEB-8BCBD487E793}"/>
+    <hyperlink ref="I7" r:id="rId13" xr:uid="{F9390C24-EA39-4363-A0C8-A1D5800EE541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C1 G2 E1:I1 G3 G4 G5 G6 G7 E5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>